--- a/data/trans_dic/P15D$nada-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15D$nada-Edad-trans_dic.xlsx
@@ -708,20 +708,20 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07888927250802275</v>
+        <v>0.07593472351700317</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1306152328038307</v>
+        <v>0.1297308983902233</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1160113909761172</v>
+        <v>0.1270917653315405</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1312890347489154</v>
+        <v>0.1574142522659277</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.08519667494473389</v>
+        <v>0.08023311389830985</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1644406525639168</v>
+        <v>0.1629131846150067</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1007745365382996</v>
+        <v>0.0998652513222803</v>
       </c>
       <c r="N5" s="5" t="n">
         <v>0</v>
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3551315357319722</v>
+        <v>0.3387098455540096</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3383633200215465</v>
+        <v>0.3333185780903092</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3885875767085231</v>
+        <v>0.3976464475388499</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.4672962249353661</v>
+        <v>0.5045324393409588</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4766261874373776</v>
+        <v>0.4602994845082239</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2762495494888283</v>
+        <v>0.2161472393733594</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5014409614766511</v>
+        <v>0.5038812420476746</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3041913887206072</v>
+        <v>0.3166963517555275</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3338692876651908</v>
+        <v>0.3325630624167858</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3073388102982711</v>
+        <v>0.3199842682390351</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2526591718105604</v>
+        <v>0.2562193020647927</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.1569145706767927</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2139894859967098</v>
+        <v>0.2139894859967099</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2141137158065596</v>
@@ -817,7 +817,7 @@
         <v>0.2089131807895103</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.09540883238249975</v>
+        <v>0.09540883238249977</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2828293510491455</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1705819880923471</v>
+        <v>0.1682836329582971</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1532349449591912</v>
+        <v>0.1508152393856832</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07771160946309177</v>
+        <v>0.07670192343219537</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05766501045477846</v>
+        <v>0.07337652111032368</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05272896244821369</v>
+        <v>0.05364883880061391</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1533199223364239</v>
+        <v>0.1596935554515061</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04870535837253215</v>
+        <v>0.05993254072042384</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1695128284286768</v>
+        <v>0.1694680400053189</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1863703799638403</v>
+        <v>0.176514704064401</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09616611392151969</v>
+        <v>0.09672172465324978</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05980710066320467</v>
+        <v>0.05767296721280026</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.494395759409018</v>
+        <v>0.4825518815282067</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3429831050937627</v>
+        <v>0.3473106207122574</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2785012080024132</v>
+        <v>0.2738463141073892</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4928880933369751</v>
+        <v>0.4769647133823655</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4446877128564753</v>
+        <v>0.4484459783586922</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4373411748961879</v>
+        <v>0.4425750940584643</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4359796452131093</v>
+        <v>0.4578181307160874</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3671412619386454</v>
+        <v>0.4338394932254541</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4199543416272472</v>
+        <v>0.4187650326048576</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3379079007590316</v>
+        <v>0.3422418736435848</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2850967508368921</v>
+        <v>0.2762839057148817</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3686928652544795</v>
+        <v>0.3559341448751986</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>0.1056533460465602</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.07746756010240018</v>
+        <v>0.07746756010240016</v>
       </c>
     </row>
     <row r="11">
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1092965663603636</v>
+        <v>0.1000453749432254</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1409947465049844</v>
+        <v>0.1397440503652304</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
@@ -991,25 +991,25 @@
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1045316830076265</v>
+        <v>0.1278591762079918</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03831171987149476</v>
+        <v>0.03712551805894843</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03583346454599513</v>
+        <v>0.03559508875752519</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09480591520918592</v>
+        <v>0.09816936956863576</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1700599964739831</v>
+        <v>0.1570679964347321</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04743168357897617</v>
+        <v>0.04477577561443339</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03349284962816427</v>
+        <v>0.03179133743464671</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6071785463170742</v>
+        <v>0.5995196498586164</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3950098337466119</v>
+        <v>0.3819978016325221</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.246985010496646</v>
+        <v>0.2706153438803827</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1929637689756425</v>
+        <v>0.190397331767981</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3983102964805211</v>
+        <v>0.4523949423194097</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.448736712424256</v>
+        <v>0.4586175664658651</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3267624796486784</v>
+        <v>0.3328458035916929</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2274375346518603</v>
+        <v>0.2266285498384628</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.406353332206373</v>
+        <v>0.4280147000266143</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3602051802730691</v>
+        <v>0.3553217607962892</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2056860613811898</v>
+        <v>0.2226157399746946</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1530057596058068</v>
+        <v>0.1584603065730507</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1181401541686596</v>
+        <v>0.139266911860023</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.105585668559791</v>
+        <v>0.1037158101926441</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03356883687989923</v>
+        <v>0.03835592739968677</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07102669734340206</v>
+        <v>0.07988225230661171</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09083295483611423</v>
+        <v>0.09078175212948188</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1197547702704154</v>
+        <v>0.1244132628940827</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1434930450183279</v>
+        <v>0.1505250317660586</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1574357813538126</v>
+        <v>0.1543419499482595</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1522733444990661</v>
+        <v>0.1357514616542559</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03760260605428996</v>
+        <v>0.03727398541804589</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1293580325348535</v>
+        <v>0.1234673390934216</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5581347803663644</v>
+        <v>0.5974527594813489</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3760729894257568</v>
+        <v>0.367550785350301</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3017302221711637</v>
+        <v>0.3257013964906783</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2772681164149327</v>
+        <v>0.2925547843270647</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7124944027198247</v>
+        <v>0.6837051312742705</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4447138258619577</v>
+        <v>0.4277544954169405</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2176740832653708</v>
+        <v>0.2182114260032615</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3875283206931872</v>
+        <v>0.3924948002693202</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5279069193110001</v>
+        <v>0.515886318407811</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3577324834574467</v>
+        <v>0.3431941753001885</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1983073971055928</v>
+        <v>0.2171157518167664</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2833912392838256</v>
+        <v>0.2724367320267311</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>0.1726496325948299</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.113642309488135</v>
+        <v>0.1136423094881349</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09171458090882727</v>
+        <v>0.08654791016345986</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07488308474582431</v>
+        <v>0.07496108833269634</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04824689786262618</v>
+        <v>0.05058423515321441</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1537461630582902</v>
+        <v>0.1539111768375375</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06572477695578241</v>
+        <v>0.04387396917930111</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04092812994357083</v>
+        <v>0.04488242575811141</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.08933119688049125</v>
+        <v>0.09004741950508402</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1566703052840413</v>
+        <v>0.1609171895696653</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07248566914804594</v>
+        <v>0.07331559362535955</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06023590375053704</v>
+        <v>0.05762098494290505</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7554024556683099</v>
+        <v>0.7494981226027497</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4899078213853147</v>
+        <v>0.5598134813083374</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.473444910915761</v>
+        <v>0.4099424210469196</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2861292977619717</v>
+        <v>0.2843944721626706</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3972613596147788</v>
+        <v>0.3971739343439741</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4619320615482422</v>
+        <v>0.4676920971881821</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.344915038615145</v>
+        <v>0.3486671372197832</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2054775794422773</v>
+        <v>0.1995421131940299</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4594070646647767</v>
+        <v>0.4575072060738292</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4365036974743108</v>
+        <v>0.4115842057580512</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3086995985074132</v>
+        <v>0.3172761627956975</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1891963515237914</v>
+        <v>0.196596152149169</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>0.08446187536793426</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.3109776892189964</v>
+        <v>0.3109776892189965</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.284244121127835</v>
@@ -1361,7 +1361,7 @@
         <v>0.2462613128657002</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2516146046325066</v>
+        <v>0.2516146046325067</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2648803587811167</v>
@@ -1373,7 +1373,7 @@
         <v>0.202297906310603</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.271425826245378</v>
+        <v>0.2714258262453781</v>
       </c>
     </row>
     <row r="20">
@@ -1387,37 +1387,37 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2216772372487801</v>
+        <v>0.2171622950957116</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1477020239080812</v>
+        <v>0.1444519089886197</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.08915122514308206</v>
+        <v>0.09092311045730468</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1562934648720126</v>
+        <v>0.1560844192574845</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1077753852964519</v>
+        <v>0.1054075511757797</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1575478842154822</v>
+        <v>0.1547363577889554</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.06291491110869372</v>
+        <v>0.06398820809303057</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2397478500612801</v>
+        <v>0.2396530502481969</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.0989142488897931</v>
+        <v>0.09891065049833657</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1943151167011903</v>
+        <v>0.1868796945999356</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8194182103714249</v>
+        <v>0.811289207421431</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7434630384392549</v>
+        <v>0.6870976985428536</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3621307713682793</v>
+        <v>0.3666621907435266</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4966739425628701</v>
+        <v>0.5051707879672127</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6305548631709491</v>
+        <v>0.5940406809763619</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5058566282707746</v>
+        <v>0.5038808902922902</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.43654120949602</v>
+        <v>0.4362833323193726</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3581082169488607</v>
+        <v>0.3743775663813887</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5297474662090913</v>
+        <v>0.5419595481303947</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.5291041808365764</v>
+        <v>0.5341426124778399</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3617710216582465</v>
+        <v>0.3670943229172336</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3813512503608623</v>
+        <v>0.3734410345598498</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.2658039750537591</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2610805936133896</v>
+        <v>0.2610805936133897</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.04750510339278802</v>
@@ -1509,7 +1509,7 @@
         <v>0.1438686968973589</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.2431648944085187</v>
+        <v>0.2431648944085186</v>
       </c>
     </row>
     <row r="23">
@@ -1521,37 +1521,37 @@
       </c>
       <c r="C23" s="5" t="inlineStr"/>
       <c r="D23" s="5" t="n">
-        <v>0.1358165912829922</v>
+        <v>0.1351496421051038</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1045342127770073</v>
+        <v>0.1018864797688846</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1323176011582723</v>
+        <v>0.1404307235066978</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.160592241633635</v>
+        <v>0.163071473365362</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03039378279230416</v>
+        <v>0.03113335169097984</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1657283264220747</v>
+        <v>0.1626877751535357</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1940991425088611</v>
+        <v>0.181679760705147</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.06380070525367018</v>
+        <v>0.05982457123491491</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1822586416031962</v>
+        <v>0.1828789904407579</v>
       </c>
     </row>
     <row r="24">
@@ -1563,37 +1563,37 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.522136612127979</v>
+        <v>0.5168907155268295</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4988107869499938</v>
+        <v>0.4868170502394697</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4050205344794547</v>
+        <v>0.4153508678286501</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2434707419830809</v>
+        <v>0.2192742837273865</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4062922231350586</v>
+        <v>0.4200120742818862</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2679911689238668</v>
+        <v>0.2617641059538886</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3221982141131289</v>
+        <v>0.3167336912521596</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.154116367381933</v>
+        <v>0.1903118298900775</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3850541653846155</v>
+        <v>0.3957567765456461</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2674121503178976</v>
+        <v>0.2730879526860122</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3167259473437743</v>
+        <v>0.3197927238238363</v>
       </c>
     </row>
     <row r="25">
@@ -1641,7 +1641,7 @@
         <v>0.1525810898873958</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.1693758866814272</v>
+        <v>0.1693758866814273</v>
       </c>
     </row>
     <row r="26">
@@ -1652,40 +1652,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1939422300684575</v>
+        <v>0.1815320839086485</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2000465606724085</v>
+        <v>0.1998332905392889</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1185887536949331</v>
+        <v>0.1125356196550872</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1066436414711335</v>
+        <v>0.1063412246143457</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1009434212621744</v>
+        <v>0.1016480972577548</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2253725933352568</v>
+        <v>0.2271018087347884</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.09337410973040168</v>
+        <v>0.09957699663614289</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1454227086088456</v>
+        <v>0.1439694484624117</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1754096104823861</v>
+        <v>0.1685577535267469</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2317792469731457</v>
+        <v>0.2275236974518594</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1166424917785176</v>
+        <v>0.1168391849727012</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1385661704445633</v>
+        <v>0.1374737962490031</v>
       </c>
     </row>
     <row r="27">
@@ -1696,40 +1696,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3602895246098741</v>
+        <v>0.3402234738514942</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3032568639912713</v>
+        <v>0.3042914733765441</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2234517197381383</v>
+        <v>0.2205163787498732</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2057547508631796</v>
+        <v>0.2104399273231093</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2585302242957889</v>
+        <v>0.2500440193789143</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3432818640050471</v>
+        <v>0.3450642188261306</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1975778706328508</v>
+        <v>0.2041149012183035</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2286675902005628</v>
+        <v>0.2292229663175005</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2826283477042482</v>
+        <v>0.2813563759259844</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3082158731202521</v>
+        <v>0.3057050302085133</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1948902165250718</v>
+        <v>0.1895526349169909</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2058205367041098</v>
+        <v>0.2029136997489991</v>
       </c>
     </row>
     <row r="28">
@@ -2003,20 +2003,20 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2660</v>
+        <v>2560</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7789</v>
+        <v>7736</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5102</v>
+        <v>5589</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4025</v>
+        <v>4826</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
@@ -2025,13 +2025,13 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3774</v>
+        <v>3554</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>14848</v>
+        <v>14710</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>6273</v>
+        <v>6216</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0</v>
@@ -2045,38 +2045,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11973</v>
+        <v>11420</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>20177</v>
+        <v>19876</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>17090</v>
+        <v>17488</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>4947</v>
+        <v>5341</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>14614</v>
+        <v>14113</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5045</v>
+        <v>3948</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>11329</v>
+        <v>11384</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>13476</v>
+        <v>14030</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>30145</v>
+        <v>30027</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>19130</v>
+        <v>19917</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>10937</v>
+        <v>11091</v>
       </c>
     </row>
     <row r="8">
@@ -2179,40 +2179,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5959</v>
+        <v>5879</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12614</v>
+        <v>12415</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3952</v>
+        <v>3901</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1914</v>
+        <v>2436</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>978</v>
+        <v>995</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5831</v>
+        <v>6073</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1105</v>
+        <v>1359</v>
       </c>
       <c r="J10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>9067</v>
+        <v>9065</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>22429</v>
+        <v>21243</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>7072</v>
+        <v>7113</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2903</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="11">
@@ -2223,40 +2223,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17272</v>
+        <v>16858</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>28234</v>
+        <v>28591</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14164</v>
+        <v>13927</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>16362</v>
+        <v>15833</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>8250</v>
+        <v>8320</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>16632</v>
+        <v>16831</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>9888</v>
+        <v>10383</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>5631</v>
+        <v>6654</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>22463</v>
+        <v>22399</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>40667</v>
+        <v>41188</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>20965</v>
+        <v>20317</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>17894</v>
+        <v>17275</v>
       </c>
     </row>
     <row r="12">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1632</v>
+        <v>1494</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7530</v>
+        <v>7463</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
@@ -2374,25 +2374,25 @@
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3072</v>
+        <v>3758</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>960</v>
+        <v>930</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2687</v>
+        <v>2783</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>14080</v>
+        <v>13005</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2889</v>
+        <v>2727</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>2312</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="15">
@@ -2403,40 +2403,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9066</v>
+        <v>8951</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21097</v>
+        <v>20402</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8856</v>
+        <v>9704</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7439</v>
+        <v>7340</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5344</v>
+        <v>6069</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>13187</v>
+        <v>13478</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8185</v>
+        <v>8337</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6930</v>
+        <v>6905</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>11519</v>
+        <v>12133</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>29824</v>
+        <v>29419</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>12528</v>
+        <v>13559</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>10560</v>
+        <v>10936</v>
       </c>
     </row>
     <row r="16">
@@ -2539,40 +2539,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2308</v>
+        <v>2721</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3818</v>
+        <v>3750</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>968</v>
+        <v>1106</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3973</v>
+        <v>4468</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4190</v>
+        <v>4353</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4680</v>
+        <v>4910</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>4598</v>
+        <v>4507</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>10833</v>
+        <v>9658</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2005</v>
+        <v>1987</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>11455</v>
+        <v>10933</v>
       </c>
     </row>
     <row r="19">
@@ -2583,40 +2583,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10905</v>
+        <v>11673</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>13599</v>
+        <v>13291</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8699</v>
+        <v>9391</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>15509</v>
+        <v>16364</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6886</v>
+        <v>6608</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>15558</v>
+        <v>14965</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>5330</v>
+        <v>5343</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>12640</v>
+        <v>12802</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>15416</v>
+        <v>15065</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>25451</v>
+        <v>24417</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>10573</v>
+        <v>11576</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>25095</v>
+        <v>24125</v>
       </c>
     </row>
     <row r="20">
@@ -2719,40 +2719,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>859</v>
+        <v>811</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1520</v>
+        <v>1593</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>6420</v>
+        <v>6427</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1995</v>
+        <v>1332</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1568</v>
+        <v>1719</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1719</v>
+        <v>1733</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>8566</v>
+        <v>8799</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>3215</v>
+        <v>3251</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>4204</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="23">
@@ -2763,40 +2763,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7079</v>
+        <v>7024</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>6330</v>
+        <v>7233</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6623</v>
+        <v>5735</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>9012</v>
+        <v>8957</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>3921</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>19289</v>
+        <v>19529</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>10471</v>
+        <v>10585</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>7871</v>
+        <v>7643</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>8840</v>
+        <v>8803</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>23867</v>
+        <v>22505</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>13690</v>
+        <v>14070</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>13206</v>
+        <v>13722</v>
       </c>
     </row>
     <row r="24">
@@ -2902,37 +2902,37 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3835</v>
+        <v>3756</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2679</v>
+        <v>2620</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>813</v>
+        <v>829</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>3959</v>
+        <v>3954</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>3158</v>
+        <v>3089</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>5705</v>
+        <v>5603</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>866</v>
+        <v>881</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>10220</v>
+        <v>10216</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>10560</v>
+        <v>10156</v>
       </c>
     </row>
     <row r="27">
@@ -2943,40 +2943,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3813</v>
+        <v>3775</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>12860</v>
+        <v>11885</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3959</v>
+        <v>4008</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>9008</v>
+        <v>9162</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>5747</v>
+        <v>5414</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>12814</v>
+        <v>12764</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>12791</v>
+        <v>12784</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>12967</v>
+        <v>13556</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>7293</v>
+        <v>7461</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>22555</v>
+        <v>22770</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>14555</v>
+        <v>14769</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>20725</v>
+        <v>20295</v>
       </c>
     </row>
     <row r="28">
@@ -3080,37 +3080,37 @@
       </c>
       <c r="C30" s="6" t="inlineStr"/>
       <c r="D30" s="6" t="n">
-        <v>2992</v>
+        <v>2978</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1587</v>
+        <v>1547</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>3045</v>
+        <v>3232</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>8703</v>
+        <v>8837</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1220</v>
+        <v>1249</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>9389</v>
+        <v>9217</v>
       </c>
       <c r="K30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>14795</v>
+        <v>13848</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>3529</v>
+        <v>3309</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>14520</v>
+        <v>14569</v>
       </c>
     </row>
     <row r="31">
@@ -3122,37 +3122,37 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>11504</v>
+        <v>11388</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>7574</v>
+        <v>7392</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>9321</v>
+        <v>9558</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>5502</v>
+        <v>4956</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>22018</v>
+        <v>22761</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>10755</v>
+        <v>10505</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>18254</v>
+        <v>17944</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>4397</v>
+        <v>5430</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>29350</v>
+        <v>30166</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>14792</v>
+        <v>15106</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>25233</v>
+        <v>25477</v>
       </c>
     </row>
     <row r="32">
@@ -3255,40 +3255,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>23870</v>
+        <v>22342</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>56767</v>
+        <v>56706</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>23674</v>
+        <v>22466</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>23571</v>
+        <v>23504</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>9469</v>
+        <v>9535</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>57322</v>
+        <v>57762</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>17766</v>
+        <v>18946</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>33764</v>
+        <v>33427</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>38043</v>
+        <v>36557</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>124723</v>
+        <v>122433</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>45479</v>
+        <v>45556</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>62799</v>
+        <v>62304</v>
       </c>
     </row>
     <row r="35">
@@ -3299,40 +3299,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>44343</v>
+        <v>41874</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>86055</v>
+        <v>86348</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>44609</v>
+        <v>44023</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>45477</v>
+        <v>46512</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>24252</v>
+        <v>23456</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>87312</v>
+        <v>87765</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>37592</v>
+        <v>38836</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>53092</v>
+        <v>53221</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>61297</v>
+        <v>61021</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>165855</v>
+        <v>164504</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>75988</v>
+        <v>73907</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>93278</v>
+        <v>91961</v>
       </c>
     </row>
     <row r="36">
